--- a/main/Techcrunch_latest_news.xlsx
+++ b/main/Techcrunch_latest_news.xlsx
@@ -28,6 +28,15 @@
     <t>image</t>
   </si>
   <si>
+    <t>Cyber security training platform Immersive Labs  closes $75M Series C led by Insight Partners</t>
+  </si>
+  <si>
+    <t>Gillmor Gang: Déjà Vu</t>
+  </si>
+  <si>
+    <t>Nuclear waste recycling is a critical avenue of energy innovation</t>
+  </si>
+  <si>
     <t>Jeff Bezos’ Blue Origin auctions off seat on first human spaceflight for $28M</t>
   </si>
   <si>
@@ -79,13 +88,13 @@
     <t>Why Mate Rimac is working on electric robotaxis</t>
   </si>
   <si>
-    <t>NASA seeking proposals for two new private astronaut missions to ISS</t>
-  </si>
-  <si>
-    <t>Shopify brings on team from augmented reality home design app Primer</t>
-  </si>
-  <si>
-    <t>Despite flat growth, ride-hailing colossus Didi’s US IPO could reach $70B</t>
+    <t>Immersive Labs, a platform which teaches cyber security skills corporate employees by using real, up-to-date threat intelligence in a “gamified” way, has closed a $75 million Series C funding roun</t>
+  </si>
+  <si>
+    <t>The Gang or a subset did a Clubhouse, longer than a regular show by a good third. The audio only structure lacked the visual cues that distinguish between irony and bad manners, but otherwise it felt</t>
+  </si>
+  <si>
+    <t>Tristan Abbey Contributor Share on Twitter Tristan Abbey is President of Comarus Analytics LLC. He served as senior policy advisor at the U.S. Senate Committee on Energy and Natural Resources and as d</t>
   </si>
   <si>
     <t>Blue Origin has its winning bidder for its first ever human spaceflight, and the winner will pay $28 million for the privilege of flying aboard the company’s debut private astronaut mission. The</t>
@@ -136,13 +145,13 @@
     <t>Mate Rimac, the founder and CEO of Croatian electric hypercar and components developer Rimac Automobili, started a separate company nearly three years ago to work on electric robotaxis. Little is know</t>
   </si>
   <si>
-    <t>NASA said Friday it was seeking proposals from commercial companies for two new private crewed missions to the International Space Station. The first mission would likely take place between fall of 20</t>
-  </si>
-  <si>
-    <t>In Friday acquisition news, Shopify shared today that they’ve acquired the team from augmented reality startup Primer, which makes an app that lets users visualize what tile, wallpaper or paint</t>
-  </si>
-  <si>
-    <t>Didi filed to go public in the United States last night, providing a look into how the Chinese ride-hailing company's business weathered the pandemic.</t>
+    <t>https://techcrunch.com/2021/06/13/cyber-security-training-platform-immersive-labs-closes-75m-series-c-led-by-insight-partners/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/13/gillmor-gang-deja-vu/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/13/nuclear-waste-recycling-is-a-critical-avenue-of-energy-innovation/</t>
   </si>
   <si>
     <t>https://techcrunch.com/2021/06/12/jeff-bezos-blue-origin-auctions-off-seat-on-first-human-spaceflight-for-28m/</t>
@@ -196,13 +205,13 @@
     <t>https://techcrunch.com/2021/06/11/why-mate-rimac-is-working-on-electric-robotaxis/</t>
   </si>
   <si>
-    <t>https://techcrunch.com/2021/06/11/nasa-seeking-proposals-for-two-new-private-astronaut-missions-to-iss/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/11/shopify-acquires-augmented-reality-home-design-app-primer/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/11/despite-flat-growth-ride-hailing-colossus-didis-us-ipo-could-reach-70b/</t>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Immersive-Labs.jpeg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2020/07/F06D2685-6169-42C0-AE3B-D2545A1B3534.jpeg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-129268875.jpg?w=300&amp;h=160&amp;crop=1</t>
   </si>
   <si>
     <t>https://techcrunch.com/wp-content/uploads/2021/06/Blue-Origin-Crew-Capsule-Interior.jpg?w=300&amp;h=160&amp;crop=1</t>
@@ -254,15 +263,6 @@
   </si>
   <si>
     <t>https://techcrunch.com/wp-content/uploads/2021/06/Mate_Rimac_04.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2017/04/0201587-large.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/E3nKJnSUUAIN-PS.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2020/05/Riders-will-be-able-to-hail-autonomous-driving-vehicles-from-DiDi-App-through-a-pilot-robo-taxi-service-to-be-launched-in-Shanghai-e1590750080851.jpg?w=300&amp;h=160&amp;crop=1</t>
   </si>
 </sst>
 </file>
@@ -642,7 +642,7 @@
     <col min="1" max="1" width="108.7109375" customWidth="1"/>
     <col min="2" max="2" width="201.7109375" customWidth="1"/>
     <col min="3" max="3" width="140.7109375" customWidth="1"/>
-    <col min="4" max="4" width="219.7109375" customWidth="1"/>
+    <col min="4" max="4" width="114.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -775,6 +775,9 @@
       <c r="A10" t="s">
         <v>12</v>
       </c>
+      <c r="B10" t="s">
+        <v>32</v>
+      </c>
       <c r="C10" s="2" t="s">
         <v>51</v>
       </c>
@@ -787,7 +790,7 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>52</v>
@@ -801,7 +804,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>53</v>
@@ -813,9 +816,6 @@
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>54</v>

--- a/main/Techcrunch_latest_news.xlsx
+++ b/main/Techcrunch_latest_news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>title</t>
   </si>
@@ -28,6 +28,15 @@
     <t>image</t>
   </si>
   <si>
+    <t>Google opens Workspace to everyone</t>
+  </si>
+  <si>
+    <t>Google will let enterprises store their Google Workspace encryption keys</t>
+  </si>
+  <si>
+    <t>Motorway’s auction platform for second-hand cars raises $67.7M Series B led by Index Ventures</t>
+  </si>
+  <si>
     <t>Cyber security training platform Immersive Labs  closes $75M Series C led by Insight Partners</t>
   </si>
   <si>
@@ -79,13 +88,10 @@
     <t>Facebook buys game studio BigBox VR</t>
   </si>
   <si>
-    <t>Extra Crunch roundup: EU insurtech, 30 years of ‘Crossing the Chasm,’ embedded finance’s endgame</t>
-  </si>
-  <si>
-    <t>5 questions startups should consider before making their first marketing hire</t>
-  </si>
-  <si>
-    <t>Why Mate Rimac is working on electric robotaxis</t>
+    <t>Google today announced that it is making Workspace, the service formerly known as G Suite (and with a number of new capabilities), available to everyone, including consumers on free Google accounts. T</t>
+  </si>
+  <si>
+    <t>Motorway, is a UK startup that allows professional car dealers to bid in an auction for privately-owned cars for sale. The startup has had rapid success by removing a lot of friction in the process.</t>
   </si>
   <si>
     <t>Immersive Labs, a platform which teaches cyber security skills corporate employees by using real, up-to-date threat intelligence in a “gamified” way, has closed a $75 million Series C funding roun</t>
@@ -136,13 +142,13 @@
     <t>Facebook has bought several virtual reality game studios over the past couple of years, and they added one more to their portfolio Friday with the acquisition of Seattle-based BigBox VR. The studio&amp;#8</t>
   </si>
   <si>
-    <t>This morning, Anna Heim and Alex Wilhelm dug into the EU insurtech market, interviewing European VCs and collating the biggest recent rounds to take the temperature of the waters across the pond.</t>
-  </si>
-  <si>
-    <t>Your first marketer will have an outsized impact on team dynamics as well as the overall strategic direction of the brand, product and company.</t>
-  </si>
-  <si>
-    <t>Mate Rimac, the founder and CEO of Croatian electric hypercar and components developer Rimac Automobili, started a separate company nearly three years ago to work on electric robotaxis. Little is know</t>
+    <t>https://techcrunch.com/2021/06/14/google-opens-workspace-to-everyone/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/google-workspace-encryption-keys/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/13/motorways-auction-platform-for-second-hand-cars-raises-67-7m-series-b-led-by-index-ventures/</t>
   </si>
   <si>
     <t>https://techcrunch.com/2021/06/13/cyber-security-training-platform-immersive-labs-closes-75m-series-c-led-by-insight-partners/</t>
@@ -196,13 +202,13 @@
     <t>https://techcrunch.com/2021/06/11/facebook-buys-game-studio-bigbox-vr/</t>
   </si>
   <si>
-    <t>https://techcrunch.com/2021/06/11/extra-crunch-roundup-eu-insurtech-30-years-of-crossing-the-chasm-embedded-finances-endgame/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/11/5-questions-startups-should-consider-before-making-their-first-marketing-hire/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/11/why-mate-rimac-is-working-on-electric-robotaxis/</t>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1281329508.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/google-docs-encrypted-tiff.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Motorway_Founders.jpg?w=300&amp;h=160&amp;crop=1</t>
   </si>
   <si>
     <t>https://techcrunch.com/wp-content/uploads/2021/06/Immersive-Labs.jpeg?w=300&amp;h=160&amp;crop=1</t>
@@ -254,15 +260,6 @@
   </si>
   <si>
     <t>https://techcrunch.com/wp-content/uploads/2021/06/maxresdefault.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1233373786.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-475470189.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Mate_Rimac_04.jpg?w=300&amp;h=160&amp;crop=1</t>
   </si>
 </sst>
 </file>
@@ -667,24 +664,21 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -692,13 +686,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -706,13 +700,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -720,13 +714,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -734,13 +728,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -748,13 +742,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -762,13 +756,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -776,13 +770,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -790,13 +784,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -804,24 +798,27 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>15</v>
       </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -832,10 +829,10 @@
         <v>35</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -846,24 +843,21 @@
         <v>36</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
-      <c r="B16" t="s">
-        <v>37</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -871,13 +865,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -885,13 +879,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -899,13 +893,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -913,13 +907,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -927,13 +921,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/main/Techcrunch_latest_news.xlsx
+++ b/main/Techcrunch_latest_news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>title</t>
   </si>
@@ -28,238 +28,244 @@
     <t>image</t>
   </si>
   <si>
-    <t>Google opens Workspace to everyone</t>
-  </si>
-  <si>
-    <t>Google will let enterprises store their Google Workspace encryption keys</t>
-  </si>
-  <si>
-    <t>Motorway’s auction platform for second-hand cars raises $67.7M Series B led by Index Ventures</t>
-  </si>
-  <si>
-    <t>Cyber security training platform Immersive Labs  closes $75M Series C led by Insight Partners</t>
-  </si>
-  <si>
-    <t>Gillmor Gang: Déjà Vu</t>
-  </si>
-  <si>
-    <t>Nuclear waste recycling is a critical avenue of energy innovation</t>
-  </si>
-  <si>
-    <t>Jeff Bezos’ Blue Origin auctions off seat on first human spaceflight for $28M</t>
-  </si>
-  <si>
-    <t>How many opinions does it take to hit the $100M ARR Club?</t>
-  </si>
-  <si>
-    <t>Inside Marqeta’s fintech mega-IPO</t>
-  </si>
-  <si>
-    <t>Apple’s iPadOS 15 breaks the app barrier</t>
-  </si>
-  <si>
-    <t>7 new security features Apple quietly announced at WWDC</t>
-  </si>
-  <si>
-    <t>This Week in Apps: WWDC 21 highlights, Instagram Creator Week recap, Android 12 beta 2 arrives</t>
-  </si>
-  <si>
-    <t>The rapid hard-tech emergence</t>
-  </si>
-  <si>
-    <t>UBS investment makes Byju’s the most valuable startup in India</t>
-  </si>
-  <si>
-    <t>SOSV, the global venture firm, just closed a $100 million fund to back its maturing startups</t>
-  </si>
-  <si>
-    <t>The air taxi market prepares to take flight</t>
-  </si>
-  <si>
-    <t>Michael Brown, the new chair of the powerful lobbying group NVCA, shares his agenda</t>
-  </si>
-  <si>
-    <t>Daily Crunch: Toptal sues rival Andela for allegedly making ‘a perfect clone’ of its freelancer marketplace</t>
-  </si>
-  <si>
-    <t>The rise of robotaxis in China</t>
-  </si>
-  <si>
-    <t>Facebook buys game studio BigBox VR</t>
-  </si>
-  <si>
-    <t>Google today announced that it is making Workspace, the service formerly known as G Suite (and with a number of new capabilities), available to everyone, including consumers on free Google accounts. T</t>
-  </si>
-  <si>
-    <t>Motorway, is a UK startup that allows professional car dealers to bid in an auction for privately-owned cars for sale. The startup has had rapid success by removing a lot of friction in the process.</t>
-  </si>
-  <si>
-    <t>Immersive Labs, a platform which teaches cyber security skills corporate employees by using real, up-to-date threat intelligence in a “gamified” way, has closed a $75 million Series C funding roun</t>
-  </si>
-  <si>
-    <t>The Gang or a subset did a Clubhouse, longer than a regular show by a good third. The audio only structure lacked the visual cues that distinguish between irony and bad manners, but otherwise it felt</t>
-  </si>
-  <si>
-    <t>Tristan Abbey Contributor Share on Twitter Tristan Abbey is President of Comarus Analytics LLC. He served as senior policy advisor at the U.S. Senate Committee on Energy and Natural Resources and as d</t>
-  </si>
-  <si>
-    <t>Blue Origin has its winning bidder for its first ever human spaceflight, and the winner will pay $28 million for the privilege of flying aboard the company’s debut private astronaut mission. The</t>
-  </si>
-  <si>
-    <t>In a world of talking points and corporate jargon, opinions are refreshing — and Expensify CEO and founder David Barrett is full of them. One of his earliest lessons in life, for example, was that b</t>
-  </si>
-  <si>
-    <t>Welcome back to The TechCrunch Exchange, a weekly startups-and-markets newsletter for your weekend enjoyment.</t>
-  </si>
-  <si>
-    <t>The announcement of new iPad software at this year’s WWDC conference had an abnormally large expectation hung on it. The iPad lineup, especially the larger iPad Pro, has kept up an impressively fran</t>
-  </si>
-  <si>
-    <t>Apple went big on security and privacy during its Worldwide Developer Conference (WWDC) keynote this week, showcasing features from on-device Siri audio processing to a new privacy dashboard for iOS t</t>
-  </si>
-  <si>
-    <t>Welcome back to This Week in Apps, the weekly TechCrunch series that recaps the latest in mobile OS news, mobile applications and the overall app economy. The app industry continues to grow, with a</t>
-  </si>
-  <si>
-    <t>The tools and technology to move forward, from machine learning to sensors to nano materials, are more powerful and affordable than ever, allowing for higher ambition and far faster time to market.</t>
-  </si>
-  <si>
-    <t>Edtech giant Byju’s has become the most valuable startup in India after raising about $350 million in a new tranche of investment from UBS Group and Zoom founder Eric Yuan, Blackstone and others</t>
-  </si>
-  <si>
-    <t>Electric air mobility is gaining elevation. But there's going to be some turbulence ahead.</t>
-  </si>
-  <si>
-    <t>Michael Brown, a longtime general partner with Battery Ventures, was just elected to the role of chairman of the National Venture Capital Association three years after joining its board of directors.</t>
+    <t>Upflow raises $15 million to manage your outstanding invoices</t>
+  </si>
+  <si>
+    <t>Jaguar Land Rover to develop a Defender-like hydrogen fuel cell EV</t>
+  </si>
+  <si>
+    <t>Automotive marketplace Carro hits unicorn status with $360M Series C led by SoftBank Vision Fund 2</t>
+  </si>
+  <si>
+    <t>Daily Crunch: The Nubank EC-1</t>
+  </si>
+  <si>
+    <t>How I Podcast: Left Handed Radio’s Anna Rubanova</t>
+  </si>
+  <si>
+    <t>Google’s AirTable rival, Tables, graduates from beta test to become a Google Cloud product</t>
+  </si>
+  <si>
+    <t>WordPress.com owner Automattic acquires journaling app Day One</t>
+  </si>
+  <si>
+    <t>Register to watch a livestream recording of the Equity podcast!</t>
+  </si>
+  <si>
+    <t>For vehicle safety, the future is now</t>
+  </si>
+  <si>
+    <t>Waabi’s Raquel Urtasun explains why it was the right time to launch an AV technology startup</t>
+  </si>
+  <si>
+    <t>Supreme Court revives LinkedIn case to protect user data from web scrapers</t>
+  </si>
+  <si>
+    <t>How autonomous delivery startups are navigating policy, partnerships and post-pandemic operations</t>
+  </si>
+  <si>
+    <t>Redwood Materials is setting up shop near the Tesla Gigafactory as part of broader expansion</t>
+  </si>
+  <si>
+    <t>The US should welcome refugees on humanitarian terms, not just economic ones</t>
+  </si>
+  <si>
+    <t>Everyone you know is a Disney princess, which means AR is queen</t>
+  </si>
+  <si>
+    <t>Fraud protection startup nSure AI raises $6.8M in seed funding</t>
+  </si>
+  <si>
+    <t>Commsor buys Meetsy to build community tools for all</t>
+  </si>
+  <si>
+    <t>How one founder is bringing the global corporate security industry out of the dark ages</t>
+  </si>
+  <si>
+    <t>E3 2021 catch up</t>
+  </si>
+  <si>
+    <t>The Station: Robotaxi apps on the rise, an AI pioneer’s new startup and mobility event highlights</t>
+  </si>
+  <si>
+    <t>French startup Upflow has raised a $15 million Series A round. The company wants to help you chase late payments. It optimizes how you collect payments from your customers in order to improve your cas</t>
+  </si>
+  <si>
+    <t>Jaguar Land Rover is developing a hydrogen fuel cell vehicle based on the new Defender SUV and plans to begin testing the prototype next year. The prototype program, known as Project Zeus, is part of</t>
+  </si>
+  <si>
+    <t>Carro, one of the largest automotive marketplaces in Southeast Asia, announced it has hit unicorn valuation after raising a $360 million Series C led by SoftBank Vision Fund 2. Other participants incl</t>
   </si>
   <si>
     <t>Hello friends and welcome to Daily Crunch, bringing you the most important startup, tech and venture capital news in a single package.</t>
   </si>
   <si>
-    <t>AutoX, Momenta and WeRide took the stage at TC Sessions: Mobility 2021 to discuss the state of robotaxi startups in China and their relationships with local governments in the country.</t>
-  </si>
-  <si>
-    <t>Facebook has bought several virtual reality game studios over the past couple of years, and they added one more to their portfolio Friday with the acquisition of Seattle-based BigBox VR. The studio&amp;#8</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/google-opens-workspace-to-everyone/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/google-workspace-encryption-keys/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/13/motorways-auction-platform-for-second-hand-cars-raises-67-7m-series-b-led-by-index-ventures/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/13/cyber-security-training-platform-immersive-labs-closes-75m-series-c-led-by-insight-partners/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/13/gillmor-gang-deja-vu/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/13/nuclear-waste-recycling-is-a-critical-avenue-of-energy-innovation/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/12/jeff-bezos-blue-origin-auctions-off-seat-on-first-human-spaceflight-for-28m/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/12/how-many-opinions-does-it-take-to-hit-the-100m-arr-club/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/12/inside-marqetas-fintech-mega-ipo/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/12/apples-ipados-15-breaks-the-app-barrier/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/12/7-new-security-features-apple-quietly-announced-at-wwdc/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/12/this-week-in-apps-wwdc-21-highlights-instagram-creator-week-recap-android-12-beta-2-arrives/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/12/the-rapid-hard-tech-emergence/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/12/ubs-investment-makes-byjus-the-most-valuable-startup-in-india/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/11/sosv-the-global-venture-firm-just-closed-a-100-million-fund-to-back-its-maturing-startups/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/11/the-air-taxi-market-prepares-to-take-flight/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/11/investor-michael-brown-newly-elected-to-chair-the-powerful-lobbying-group-nvca-shares-his-agenda/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/11/daily-crunch-toptal-sues-rival-andela-for-allegedly-making-a-perfect-clone-of-its-freelancer-marketplace/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/11/the-rise-of-robotaxis-in-china/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/11/facebook-buys-game-studio-bigbox-vr/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1281329508.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/google-docs-encrypted-tiff.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Motorway_Founders.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Immersive-Labs.jpeg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2020/07/F06D2685-6169-42C0-AE3B-D2545A1B3534.jpeg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-129268875.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Blue-Origin-Crew-Capsule-Interior.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2019/08/GettyImages-186857558.jpeg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2020/06/NSussman_Techcrunch_Exchange-multicolor.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Apple-WWDC-2021-2021-06-07-at-1.45.27-PM.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/apple-wwdc-privacy-security.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2020/10/this-week-in-apps-splash-2.png?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2018/05/gettyimages-914549176.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/03/GettyImages-1132893022.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2017/01/sean_o_sullivan.png?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/market-map-evtol.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Screen-Shot-2021-06-11-at-3.29.52-PM.png?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/clone_paper_dolls.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/china_car_panel.png?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/maxresdefault.jpg?w=300&amp;h=160&amp;crop=1</t>
+    <t>The beauty of podcasting is that anyone can do it. It’s a rare medium that’s nearly as easy to make as it is to consume. And as such, no two people do it exactly the same way. There are a wealth o</t>
+  </si>
+  <si>
+    <t>Last fall, Google’s in-house incubator Area 120 introduced a new work-tracking tool called Tables, an AirTable rival that allows for tracking projects more efficiently using automation. Today, G</t>
+  </si>
+  <si>
+    <t>Automattic is expanding its lineup of online writing platforms with its acquisition of Day One, a popular journaling app for Mac and Apple mobile devices. The app has been downloaded more than 15 mill</t>
+  </si>
+  <si>
+    <t>Throughout its four or so years of life, the Equity podcast crew has had the good fortune to record a few live shows. We sat on the small stage at TechCrunch Disrupt, for example, with Garry Tan one y</t>
+  </si>
+  <si>
+    <t>Congress has an opportunity to help build public trust in the safety of driverless technology by requiring existing innovations that will be the building blocks of driverless vehicles.</t>
+  </si>
+  <si>
+    <t>Autonomous vehicle startup Waabi's Raquel Urtasun joined Mobility 2021 to talk about her new venture and the challenges facing the self-driving vehicle industry.</t>
+  </si>
+  <si>
+    <t>The Supreme Court has given LinkedIn another chance to stop a rival company from scraping personal information from users’ public profiles, a practice LinkedIn says should be illegal but one tha</t>
+  </si>
+  <si>
+    <t>Gatik's Apeksha Kumavat, Nuro's Amy Jones Satrom and Starship Technologies' Ahti Heinla joined us to discuss their companies’ unique approaches to autonomous delivery.</t>
+  </si>
+  <si>
+    <t>Redwood Materials, the battery recycling startup founded by former Tesla CTO JB Straubel, has purchased 100 acres of land near the Gigafactory that Panasonic operates with Tesla in Sparks, Nevada as p</t>
+  </si>
+  <si>
+    <t>After experiencing hardship in their home countries, refugees have unparalleled drive to make a better life for themselves, their families and their communities -- which helps lift our entire economy.</t>
+  </si>
+  <si>
+    <t>This weekend, all of your friends morphed one by one into animated, Pixar-inspired characters. This isn’t a fever dream, and you’re not alone. On Thursday, Snapchat released a Cartoon 3D Style Len</t>
+  </si>
+  <si>
+    <t>Fraud protection startup nSure AI has raised $6.8 million in seed funding, led by DisruptiveAI, Phoenix Insurance, AXA-backed venture builder Kamet, Moneta Seeds and private investors. The round will</t>
+  </si>
+  <si>
+    <t>Mac Reddin, the co-founder and CEO of Commsor, met the first professional investor for his company’s $16 million Series A on Lunch Club, a marketplace for 1:1 video introductions. Commsor, which see</t>
+  </si>
+  <si>
+    <t>When Cory Siskind finished school, she was dropped into a high-stakes job helping large multinational corporations manage their operational security in Mexico City, with almost no relevant lived exper</t>
+  </si>
+  <si>
+    <t>If you’re like me, you spent the weekend longing for the mixed bag that is downtown Los Angeles during E3. I’ve got fond memories of fish tacos, The Last Bookstore, watching playoff basketball in</t>
+  </si>
+  <si>
+    <t>Hello and welcome back to The Station, a weekly newsletter dedicated to all the ways people and packages move (today and in the future) from Point A to Point B. Welp, the mobility event is over and we</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/upflow-raises-15-million-to-manage-your-outstanding-invoices/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/jaguar-land-rover-to-develop-a-defender-like-hydrogen-fuel-cell-ev/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/automotive-marketplace-carro-hits-unicorn-status-with-360m-series-c-led-by-softbank-vision-fund-2/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/daily-crunch-18/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/how-i-podcast-left-handed-radios-anna-rubanova/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/googles-airtable-rival-tables-graduates-from-beta-test-to-become-a-google-cloud-product/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/wordpress-com-owner-automattic-acquires-journaling-app-day-one/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/register-to-watch-a-livestream-recording-of-equity/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/for-vehicle-safety-the-future-is-now/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/waabis-raquel-urtasun-explains-why-the-time-was-right-to-launch-an-av-technology-startup/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/supreme-court-revives-linkedin-bid-to-protect-user-data-from-web-scrapers/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/how-autonomous-delivery-startups-are-navigating-policy-partnerships-and-post-pandemic-operations/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/redwood-materials-is-setting-up-shop-near-the-tesla-gigafactory-as-part-of-broader-expansion/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/the-us-should-welcome-refugees-on-humanitarian-terms-not-just-economic-ones/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/everyone-you-know-is-a-disney-princess-which-means-ar-is-queen/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/fraud-protection-startup-nsure-ai-raises-6-8m-in-seed-funding/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/commsor-buys-meetsy-to-build-community-tools-for-all/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/how-one-founder-is-bringing-the-global-corporate-security-industry-out-of-the-dark-ages/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/e3-2021-catch-up/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/14/the-station-robotaxi-apps-on-the-rise-an-ai-pioneers-new-startup-and-mobility-event-highlights/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/UPFLOW-founders-May-2021.jpeg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Land-Rover-Defender_Front-3q-2_European-Model-Shown.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Team-Photo-of-Carro.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/NSussman_Techcrunch_Nubank-FINAL_full_L.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2019/03/podcast-mic-white.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2020/09/it-ops.png?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/intro-devices@2x.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Equity-Banner-16.9.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1300574373.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Raquel-Urtasun.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1205021544.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2020/04/nuro-r2-05-original-1.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/01/RedwoodMaterials-5776.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1162497947.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Screen-Shot-2021-06-14-at-12.56.25-PM.png?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-613935822.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-671077402.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/found-featured-image-cory-siskind.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Screen-Shot-2021-06-14-at-11.07.15-AM.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Argo-MIAMI-testing-ford.jpg?w=300&amp;h=160&amp;crop=1</t>
   </si>
 </sst>
 </file>
@@ -636,10 +642,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="108.7109375" customWidth="1"/>
+    <col min="1" max="1" width="99.7109375" customWidth="1"/>
     <col min="2" max="2" width="201.7109375" customWidth="1"/>
-    <col min="3" max="3" width="140.7109375" customWidth="1"/>
-    <col min="4" max="4" width="114.7109375" customWidth="1"/>
+    <col min="3" max="3" width="133.7109375" customWidth="1"/>
+    <col min="4" max="4" width="125.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -664,21 +670,24 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>5</v>
       </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -686,13 +695,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -700,13 +709,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -714,13 +723,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -728,13 +737,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -742,13 +751,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -756,13 +765,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -770,13 +779,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -784,13 +793,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -798,13 +807,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -812,13 +821,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -826,13 +835,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -840,24 +849,27 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>18</v>
       </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -865,13 +877,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -879,13 +891,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -893,13 +905,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -907,13 +919,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -921,13 +933,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/main/Techcrunch_latest_news.xlsx
+++ b/main/Techcrunch_latest_news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
   <si>
     <t>title</t>
   </si>
@@ -28,244 +28,235 @@
     <t>image</t>
   </si>
   <si>
-    <t>Upflow raises $15 million to manage your outstanding invoices</t>
-  </si>
-  <si>
-    <t>Jaguar Land Rover to develop a Defender-like hydrogen fuel cell EV</t>
-  </si>
-  <si>
-    <t>Automotive marketplace Carro hits unicorn status with $360M Series C led by SoftBank Vision Fund 2</t>
-  </si>
-  <si>
-    <t>Daily Crunch: The Nubank EC-1</t>
-  </si>
-  <si>
-    <t>How I Podcast: Left Handed Radio’s Anna Rubanova</t>
-  </si>
-  <si>
-    <t>Google’s AirTable rival, Tables, graduates from beta test to become a Google Cloud product</t>
-  </si>
-  <si>
-    <t>WordPress.com owner Automattic acquires journaling app Day One</t>
-  </si>
-  <si>
-    <t>Register to watch a livestream recording of the Equity podcast!</t>
-  </si>
-  <si>
-    <t>For vehicle safety, the future is now</t>
-  </si>
-  <si>
-    <t>Waabi’s Raquel Urtasun explains why it was the right time to launch an AV technology startup</t>
-  </si>
-  <si>
-    <t>Supreme Court revives LinkedIn case to protect user data from web scrapers</t>
-  </si>
-  <si>
-    <t>How autonomous delivery startups are navigating policy, partnerships and post-pandemic operations</t>
-  </si>
-  <si>
-    <t>Redwood Materials is setting up shop near the Tesla Gigafactory as part of broader expansion</t>
-  </si>
-  <si>
-    <t>The US should welcome refugees on humanitarian terms, not just economic ones</t>
-  </si>
-  <si>
-    <t>Everyone you know is a Disney princess, which means AR is queen</t>
-  </si>
-  <si>
-    <t>Fraud protection startup nSure AI raises $6.8M in seed funding</t>
-  </si>
-  <si>
-    <t>Commsor buys Meetsy to build community tools for all</t>
-  </si>
-  <si>
-    <t>How one founder is bringing the global corporate security industry out of the dark ages</t>
-  </si>
-  <si>
-    <t>E3 2021 catch up</t>
-  </si>
-  <si>
-    <t>The Station: Robotaxi apps on the rise, an AI pioneer’s new startup and mobility event highlights</t>
-  </si>
-  <si>
-    <t>French startup Upflow has raised a $15 million Series A round. The company wants to help you chase late payments. It optimizes how you collect payments from your customers in order to improve your cas</t>
-  </si>
-  <si>
-    <t>Jaguar Land Rover is developing a hydrogen fuel cell vehicle based on the new Defender SUV and plans to begin testing the prototype next year. The prototype program, known as Project Zeus, is part of</t>
-  </si>
-  <si>
-    <t>Carro, one of the largest automotive marketplaces in Southeast Asia, announced it has hit unicorn valuation after raising a $360 million Series C led by SoftBank Vision Fund 2. Other participants incl</t>
+    <t>Daily Crunch: Spotify and Ford make acquisitions</t>
+  </si>
+  <si>
+    <t>Extra Crunch roundup: influencer marketing 101, spotting future unicorns, Apple AirTags teardown</t>
+  </si>
+  <si>
+    <t>Perspectives on tackling Big Tech’s market power</t>
+  </si>
+  <si>
+    <t>Mediflash is a freelancer marketplace for health professionals</t>
+  </si>
+  <si>
+    <t>Owning the paycheck is the key to fintech success</t>
+  </si>
+  <si>
+    <t>Tiger Global in talks to back BharatPe at $2.5 billion valuation</t>
+  </si>
+  <si>
+    <t>UK’s ICO warns over ‘Big Data’ surveillance threat of live facial recognition in public</t>
+  </si>
+  <si>
+    <t>Ford acquires Electriphi as it prepares to woo EV fleet customers</t>
+  </si>
+  <si>
+    <t>Delivery service Gopuff acquires rideOS for $115 million</t>
+  </si>
+  <si>
+    <t>Spotify acquires Podz, a podcast discovery platform</t>
+  </si>
+  <si>
+    <t>KeepTruckin raises $190 million to invest in AI products, double R&amp;D team to 700</t>
+  </si>
+  <si>
+    <t>Daily Crunch: Google’s first retail location opened today in NYC</t>
+  </si>
+  <si>
+    <t>Canoo wants to connect owners to all of their vehicles — not just Canoo’s</t>
+  </si>
+  <si>
+    <t>Mobile dialysis startup eyes human trials in 2022 following encouraging animal study</t>
+  </si>
+  <si>
+    <t>CEO Shishir Mehrotra and investor S. Somasegar reveal what sings in Coda’s pitch doc</t>
+  </si>
+  <si>
+    <t>US lawmakers want to restrict police use of ‘Stingray’ cell tower simulators</t>
+  </si>
+  <si>
+    <t>Following lawsuits, Snapchat pulls its controversial speed filter</t>
+  </si>
+  <si>
+    <t>There are only a few spots left in Startup Alley at TC Disrupt 2021</t>
+  </si>
+  <si>
+    <t>How to launch a successful RPA initiative</t>
+  </si>
+  <si>
+    <t>Transform launches with $24.5M in funding for a tool to query and build metrics out of data troves</t>
   </si>
   <si>
     <t>Hello friends and welcome to Daily Crunch, bringing you the most important startup, tech and venture capital news in a single package.</t>
   </si>
   <si>
-    <t>The beauty of podcasting is that anyone can do it. It’s a rare medium that’s nearly as easy to make as it is to consume. And as such, no two people do it exactly the same way. There are a wealth o</t>
-  </si>
-  <si>
-    <t>Last fall, Google’s in-house incubator Area 120 introduced a new work-tracking tool called Tables, an AirTable rival that allows for tracking projects more efficiently using automation. Today, G</t>
-  </si>
-  <si>
-    <t>Automattic is expanding its lineup of online writing platforms with its acquisition of Day One, a popular journaling app for Mac and Apple mobile devices. The app has been downloaded more than 15 mill</t>
-  </si>
-  <si>
-    <t>Throughout its four or so years of life, the Equity podcast crew has had the good fortune to record a few live shows. We sat on the small stage at TechCrunch Disrupt, for example, with Garry Tan one y</t>
-  </si>
-  <si>
-    <t>Congress has an opportunity to help build public trust in the safety of driverless technology by requiring existing innovations that will be the building blocks of driverless vehicles.</t>
-  </si>
-  <si>
-    <t>Autonomous vehicle startup Waabi's Raquel Urtasun joined Mobility 2021 to talk about her new venture and the challenges facing the self-driving vehicle industry.</t>
-  </si>
-  <si>
-    <t>The Supreme Court has given LinkedIn another chance to stop a rival company from scraping personal information from users’ public profiles, a practice LinkedIn says should be illegal but one tha</t>
-  </si>
-  <si>
-    <t>Gatik's Apeksha Kumavat, Nuro's Amy Jones Satrom and Starship Technologies' Ahti Heinla joined us to discuss their companies’ unique approaches to autonomous delivery.</t>
-  </si>
-  <si>
-    <t>Redwood Materials, the battery recycling startup founded by former Tesla CTO JB Straubel, has purchased 100 acres of land near the Gigafactory that Panasonic operates with Tesla in Sparks, Nevada as p</t>
-  </si>
-  <si>
-    <t>After experiencing hardship in their home countries, refugees have unparalleled drive to make a better life for themselves, their families and their communities -- which helps lift our entire economy.</t>
-  </si>
-  <si>
-    <t>This weekend, all of your friends morphed one by one into animated, Pixar-inspired characters. This isn’t a fever dream, and you’re not alone. On Thursday, Snapchat released a Cartoon 3D Style Len</t>
-  </si>
-  <si>
-    <t>Fraud protection startup nSure AI has raised $6.8 million in seed funding, led by DisruptiveAI, Phoenix Insurance, AXA-backed venture builder Kamet, Moneta Seeds and private investors. The round will</t>
-  </si>
-  <si>
-    <t>Mac Reddin, the co-founder and CEO of Commsor, met the first professional investor for his company’s $16 million Series A on Lunch Club, a marketplace for 1:1 video introductions. Commsor, which see</t>
-  </si>
-  <si>
-    <t>When Cory Siskind finished school, she was dropped into a high-stakes job helping large multinational corporations manage their operational security in Mexico City, with almost no relevant lived exper</t>
-  </si>
-  <si>
-    <t>If you’re like me, you spent the weekend longing for the mixed bag that is downtown Los Angeles during E3. I’ve got fond memories of fish tacos, The Last Bookstore, watching playoff basketball in</t>
-  </si>
-  <si>
-    <t>Hello and welcome back to The Station, a weekly newsletter dedicated to all the ways people and packages move (today and in the future) from Point A to Point B. Welp, the mobility event is over and we</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/upflow-raises-15-million-to-manage-your-outstanding-invoices/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/jaguar-land-rover-to-develop-a-defender-like-hydrogen-fuel-cell-ev/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/automotive-marketplace-carro-hits-unicorn-status-with-360m-series-c-led-by-softbank-vision-fund-2/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/daily-crunch-18/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/how-i-podcast-left-handed-radios-anna-rubanova/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/googles-airtable-rival-tables-graduates-from-beta-test-to-become-a-google-cloud-product/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/wordpress-com-owner-automattic-acquires-journaling-app-day-one/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/register-to-watch-a-livestream-recording-of-equity/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/for-vehicle-safety-the-future-is-now/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/waabis-raquel-urtasun-explains-why-the-time-was-right-to-launch-an-av-technology-startup/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/supreme-court-revives-linkedin-bid-to-protect-user-data-from-web-scrapers/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/how-autonomous-delivery-startups-are-navigating-policy-partnerships-and-post-pandemic-operations/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/redwood-materials-is-setting-up-shop-near-the-tesla-gigafactory-as-part-of-broader-expansion/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/the-us-should-welcome-refugees-on-humanitarian-terms-not-just-economic-ones/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/everyone-you-know-is-a-disney-princess-which-means-ar-is-queen/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/fraud-protection-startup-nsure-ai-raises-6-8m-in-seed-funding/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/commsor-buys-meetsy-to-build-community-tools-for-all/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/how-one-founder-is-bringing-the-global-corporate-security-industry-out-of-the-dark-ages/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/e3-2021-catch-up/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/14/the-station-robotaxi-apps-on-the-rise-an-ai-pioneers-new-startup-and-mobility-event-highlights/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/UPFLOW-founders-May-2021.jpeg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Land-Rover-Defender_Front-3q-2_European-Model-Shown.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Team-Photo-of-Carro.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/NSussman_Techcrunch_Nubank-FINAL_full_L.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2019/03/podcast-mic-white.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2020/09/it-ops.png?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/intro-devices@2x.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Equity-Banner-16.9.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1300574373.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Raquel-Urtasun.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1205021544.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2020/04/nuro-r2-05-original-1.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/01/RedwoodMaterials-5776.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1162497947.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Screen-Shot-2021-06-14-at-12.56.25-PM.png?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-613935822.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-671077402.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/found-featured-image-cory-siskind.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Screen-Shot-2021-06-14-at-11.07.15-AM.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Argo-MIAMI-testing-ford.jpg?w=300&amp;h=160&amp;crop=1</t>
+    <t>We're off today to celebrate the Juneteenth holiday in the United States. I hope you have a safe and relaxing weekend.</t>
+  </si>
+  <si>
+    <t>The need for markets-focused competition watchdogs and consumer-centric privacy regulators to think outside their respective ‘legal silos’ and find creative ways to work together to tackle</t>
+  </si>
+  <si>
+    <t>Meet Mediflash, a new French startup that wants to improve temp staffing in healthcare facilities, such as nursing homes, clinics and mental health facilities. The company positions itself as an alter</t>
+  </si>
+  <si>
+    <t>Hello and welcome back to Equity, TechCrunch’s venture capital-focused podcast, where we unpack the numbers behind the headlines. This week, Natasha and Danny, otherwise known as your two new favori</t>
+  </si>
+  <si>
+    <t>Indian fintech startup BharatPe is in advanced stages of talks to raise about $250 million in a new financing round led by Tiger Global, two sources familiar with the matter told TechCrunch. The new r</t>
+  </si>
+  <si>
+    <t>The UK’s chief data protection regulator has warned over reckless and inappropriate use of live facial recognition (LFR) in public places. Publishing an opinion today on the use of this biometri</t>
+  </si>
+  <si>
+    <t>Ford has two electric vehicles in the pipeline —  the E-Transit cargo van and F-150 Lighting Pro —aimed at commercial customers. Now, the automaker is rounding out its future EV commercial busine</t>
+  </si>
+  <si>
+    <t>On-demand goods, food and alcohol delivery service Gopuff has acquired fleet management platform rideOS for $115 million, sources familiar with the deal say. This acquisition comes just a few months a</t>
+  </si>
+  <si>
+    <t>Podcasts are all the rage, but podcast discovery is a challenge. Today, Spotify announced its acquisition of Podz, a startup that’s trying to solve the problem of podcast discovery. “At Sp</t>
+  </si>
+  <si>
+    <t>KeepTruckin, a hardware and software developer that helps trucking fleets manage vehicle, cargo and driver safety, has just raised $190 million in a Series E funding round, which puts the company&amp;#821</t>
+  </si>
+  <si>
+    <t>This past year, three sheep in Canada have been wearing their kidneys on their sleeves. Or more aptly, in jackets on their fluffy backs.  These three sheep are part of an ongoing animal study run by</t>
+  </si>
+  <si>
+    <t>CEO Shishir Mehrotra and Madrona partner S. Somasegar joined Extra Crunch Live to discuss Coda's pitch doc -- and give live feedback on pitches from the audience.</t>
+  </si>
+  <si>
+    <t>Igor Bonifacic Contributor Share on Twitter Igor Bonifacic is a contributing writer at Engadget. According to BuzzFeed News, Democratic Senator Ron Wyden and Representative Ted Lieu will introduce le</t>
+  </si>
+  <si>
+    <t>Lately, Snapchat’s 3D Cartoon lens has been all the buzz, making all of our friends look like Pixar characters. But since 2013, a staple filter on the ephemeral photo-sharing app has been the sp</t>
+  </si>
+  <si>
+    <t>Early-stage founders, a shipload of opportunity is about to set sail and you don’t want to miss the boat. We have only a few spots left to exhibit in Startup Alley at TechCrunch Disrupt 2021 (Septem</t>
+  </si>
+  <si>
+    <t>Traditional firms might approach an RPA initiative as they have other business initiatives, which is slowly and carefully. But to reap the benefits of automation at scale, companies need more ambition</t>
+  </si>
+  <si>
+    <t>The biggest tech companies have put a lot of time and money into building tools and platforms for their data science teams and those who work with them to glean insights and metrics out of the masses</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/18/daily-crunch-21/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/18/extra-crunch-roundup-influencer-marketing-101-spotting-future-unicorns-apple-airtags-teardown/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/18/perspectives-on-tackling-big-techs-market-power/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/18/mediflash-is-a-freelancer-marketplace-for-health-professionals/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/18/fintech-2021-paycheck/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/18/tiger-global-in-talks-to-back-bharatpe-at-2-5-billion-valuation/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/18/uks-ico-warns-over-big-data-surveillance-threat-of-live-facial-recognition-in-public/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/ford-acquires-electriphi-as-it-prepares-to-woo-ev-fleet-customers/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/delivery-service-gopuff-acquires-rideos-for-115-million-plus/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/spotify-acquires-podz-a-podcast-discovery-app/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/keeptruckin-raises-190-million-to-invest-in-ai-products-double-rd-team-to-700/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/daily-crunch-googles-first-retail-location-opened-today-in-nyc/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/canoo-wants-to-connect-owners-to-all-of-their-vehicles-not-just-canoos/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/mobile-dialysis-startup-eyes-human-trials-in-2022-following-encouraging-animal-study/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/ceo-shishir-mehrotra-and-investor-s-somasegar-reveal-what-sings-in-codas-pitch-doc/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/us-lawmakers-want-to-restrict-police-use-of-stingray-cell-tower-simulators/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/following-lawsuits-snapchat-takes-down-controversial-speed-filter/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/going-going-almost-gone-only-a-few-spots-left-in-startup-alley-at-tc-disrupt-2021/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/how-to-launch-a-successful-rpa-initiative/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/17/transform-metrics/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/All-New_Ford-E-Transit_09.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1318403307.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2019/10/GettyImages-1177739908.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Mediflash.jpeg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2020/07/equity-podcast-2019-phone.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-152382478.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2019/03/GettyImages-51478187.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Driver_partner_2_4x6_horizontal-2.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2019/08/spotify-app-icon-iphone.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/KT-1.png?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Branded-Merchandise-Basketballs.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Screen-Shot-2021-06-17-at-2.34.10-PM.png?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1006988296.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/05/ECL-2021-june-02a-1.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2018/04/gettyimages-631552730.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/snapchat-speed-blur.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/49206009672_8252351acd_o.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1303811813.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/laptop-screen-mockup-of-a-macbook-pro-at-a-plain-background-60-el.png?w=300&amp;h=160&amp;crop=1</t>
   </si>
 </sst>
 </file>
@@ -644,8 +635,8 @@
   <cols>
     <col min="1" max="1" width="99.7109375" customWidth="1"/>
     <col min="2" max="2" width="201.7109375" customWidth="1"/>
-    <col min="3" max="3" width="133.7109375" customWidth="1"/>
-    <col min="4" max="4" width="125.7109375" customWidth="1"/>
+    <col min="3" max="3" width="129.7109375" customWidth="1"/>
+    <col min="4" max="4" width="139.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -670,10 +661,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -684,10 +675,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -698,10 +689,10 @@
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -712,10 +703,10 @@
         <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -726,10 +717,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -740,10 +731,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -754,10 +745,10 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -768,10 +759,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -782,10 +773,10 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -796,10 +787,10 @@
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -810,10 +801,10 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -821,27 +812,24 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -849,13 +837,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -863,13 +851,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -877,13 +865,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -891,13 +879,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -905,13 +893,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -919,13 +907,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -933,13 +921,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/main/Techcrunch_latest_news.xlsx
+++ b/main/Techcrunch_latest_news.xlsx
@@ -28,6 +28,15 @@
     <t>image</t>
   </si>
   <si>
+    <t>Dollars, deals and the importance of nondilutive capital</t>
+  </si>
+  <si>
+    <t>This Week in Apps: Spotify debuts a Clubhouse rival, Facebook tests Audio Rooms in US, Amazon cuts Appstore commissions</t>
+  </si>
+  <si>
+    <t>Investors say Eindhoven poised to become Netherlands’ No. 2 tech hub</t>
+  </si>
+  <si>
     <t>Daily Crunch: Spotify and Ford make acquisitions</t>
   </si>
   <si>
@@ -79,13 +88,13 @@
     <t>Following lawsuits, Snapchat pulls its controversial speed filter</t>
   </si>
   <si>
-    <t>There are only a few spots left in Startup Alley at TC Disrupt 2021</t>
-  </si>
-  <si>
-    <t>How to launch a successful RPA initiative</t>
-  </si>
-  <si>
-    <t>Transform launches with $24.5M in funding for a tool to query and build metrics out of data troves</t>
+    <t>Today, on Juneteenth, we recognize the efforts this nation still needs to put toward addressing structural racism and disparities, including in the world of tech. This week, HBCUvc, a nonprofit that a</t>
+  </si>
+  <si>
+    <t>Welcome back to This Week in Apps, the weekly TechCrunch series that recaps the latest in mobile OS news, mobile applications and the overall app economy. The app industry continues to grow, with a</t>
+  </si>
+  <si>
+    <t>Our survey respondents said Eindhoven might not immediately spring to mind as a high-tech hub, but the Netherlands city is keen to position itself as a center for deep tech in Europe.</t>
   </si>
   <si>
     <t>Hello friends and welcome to Daily Crunch, bringing you the most important startup, tech and venture capital news in a single package.</t>
@@ -133,13 +142,13 @@
     <t>Lately, Snapchat’s 3D Cartoon lens has been all the buzz, making all of our friends look like Pixar characters. But since 2013, a staple filter on the ephemeral photo-sharing app has been the sp</t>
   </si>
   <si>
-    <t>Early-stage founders, a shipload of opportunity is about to set sail and you don’t want to miss the boat. We have only a few spots left to exhibit in Startup Alley at TechCrunch Disrupt 2021 (Septem</t>
-  </si>
-  <si>
-    <t>Traditional firms might approach an RPA initiative as they have other business initiatives, which is slowly and carefully. But to reap the benefits of automation at scale, companies need more ambition</t>
-  </si>
-  <si>
-    <t>The biggest tech companies have put a lot of time and money into building tools and platforms for their data science teams and those who work with them to glean insights and metrics out of the masses</t>
+    <t>https://techcrunch.com/2021/06/19/dollars-deals-and-the-importance-of-nondilutive-capital/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/19/this-week-in-apps-spotify-debuts-a-clubhouse-rival-facebook-tests-audio-rooms-in-us-amazon-cuts-appstore-commissions/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/18/investors-say-eindhoven-poised-to-become-netherlands-no-2-tech-hub/</t>
   </si>
   <si>
     <t>https://techcrunch.com/2021/06/18/daily-crunch-21/</t>
@@ -193,13 +202,13 @@
     <t>https://techcrunch.com/2021/06/17/following-lawsuits-snapchat-takes-down-controversial-speed-filter/</t>
   </si>
   <si>
-    <t>https://techcrunch.com/2021/06/17/going-going-almost-gone-only-a-few-spots-left-in-startup-alley-at-tc-disrupt-2021/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/17/how-to-launch-a-successful-rpa-initiative/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/17/transform-metrics/</t>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/juneteenth_flag.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2020/10/this-week-in-apps-splash-2.png?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-995442942.jpg?w=300&amp;h=160&amp;crop=1</t>
   </si>
   <si>
     <t>https://techcrunch.com/wp-content/uploads/2021/06/All-New_Ford-E-Transit_09.jpg?w=300&amp;h=160&amp;crop=1</t>
@@ -248,15 +257,6 @@
   </si>
   <si>
     <t>https://techcrunch.com/wp-content/uploads/2021/06/snapchat-speed-blur.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/49206009672_8252351acd_o.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1303811813.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/laptop-screen-mockup-of-a-macbook-pro-at-a-plain-background-60-el.png?w=300&amp;h=160&amp;crop=1</t>
   </si>
 </sst>
 </file>
@@ -633,10 +633,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="99.7109375" customWidth="1"/>
+    <col min="1" max="1" width="120.7109375" customWidth="1"/>
     <col min="2" max="2" width="201.7109375" customWidth="1"/>
-    <col min="3" max="3" width="129.7109375" customWidth="1"/>
-    <col min="4" max="4" width="139.7109375" customWidth="1"/>
+    <col min="3" max="3" width="152.7109375" customWidth="1"/>
+    <col min="4" max="4" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -762,7 +762,7 @@
         <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -776,7 +776,7 @@
         <v>50</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -804,7 +804,7 @@
         <v>52</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -812,7 +812,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>53</v>
@@ -825,6 +825,9 @@
       <c r="A14" t="s">
         <v>16</v>
       </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
       <c r="C14" s="2" t="s">
         <v>54</v>
       </c>
@@ -837,7 +840,7 @@
         <v>17</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>55</v>
@@ -851,7 +854,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>56</v>
@@ -863,9 +866,6 @@
     <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>57</v>

--- a/main/Techcrunch_latest_news.xlsx
+++ b/main/Techcrunch_latest_news.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>title</t>
   </si>
@@ -28,235 +28,244 @@
     <t>image</t>
   </si>
   <si>
-    <t>Dollars, deals and the importance of nondilutive capital</t>
-  </si>
-  <si>
-    <t>This Week in Apps: Spotify debuts a Clubhouse rival, Facebook tests Audio Rooms in US, Amazon cuts Appstore commissions</t>
-  </si>
-  <si>
-    <t>Investors say Eindhoven poised to become Netherlands’ No. 2 tech hub</t>
-  </si>
-  <si>
-    <t>Daily Crunch: Spotify and Ford make acquisitions</t>
-  </si>
-  <si>
-    <t>Extra Crunch roundup: influencer marketing 101, spotting future unicorns, Apple AirTags teardown</t>
-  </si>
-  <si>
-    <t>Perspectives on tackling Big Tech’s market power</t>
-  </si>
-  <si>
-    <t>Mediflash is a freelancer marketplace for health professionals</t>
-  </si>
-  <si>
-    <t>Owning the paycheck is the key to fintech success</t>
-  </si>
-  <si>
-    <t>Tiger Global in talks to back BharatPe at $2.5 billion valuation</t>
-  </si>
-  <si>
-    <t>UK’s ICO warns over ‘Big Data’ surveillance threat of live facial recognition in public</t>
-  </si>
-  <si>
-    <t>Ford acquires Electriphi as it prepares to woo EV fleet customers</t>
-  </si>
-  <si>
-    <t>Delivery service Gopuff acquires rideOS for $115 million</t>
-  </si>
-  <si>
-    <t>Spotify acquires Podz, a podcast discovery platform</t>
-  </si>
-  <si>
-    <t>KeepTruckin raises $190 million to invest in AI products, double R&amp;D team to 700</t>
-  </si>
-  <si>
-    <t>Daily Crunch: Google’s first retail location opened today in NYC</t>
-  </si>
-  <si>
-    <t>Canoo wants to connect owners to all of their vehicles — not just Canoo’s</t>
-  </si>
-  <si>
-    <t>Mobile dialysis startup eyes human trials in 2022 following encouraging animal study</t>
-  </si>
-  <si>
-    <t>CEO Shishir Mehrotra and investor S. Somasegar reveal what sings in Coda’s pitch doc</t>
-  </si>
-  <si>
-    <t>US lawmakers want to restrict police use of ‘Stingray’ cell tower simulators</t>
-  </si>
-  <si>
-    <t>Following lawsuits, Snapchat pulls its controversial speed filter</t>
-  </si>
-  <si>
-    <t>Today, on Juneteenth, we recognize the efforts this nation still needs to put toward addressing structural racism and disparities, including in the world of tech. This week, HBCUvc, a nonprofit that a</t>
-  </si>
-  <si>
-    <t>Welcome back to This Week in Apps, the weekly TechCrunch series that recaps the latest in mobile OS news, mobile applications and the overall app economy. The app industry continues to grow, with a</t>
-  </si>
-  <si>
-    <t>Our survey respondents said Eindhoven might not immediately spring to mind as a high-tech hub, but the Netherlands city is keen to position itself as a center for deep tech in Europe.</t>
+    <t>Tesla backs vision-only approach to autonomy using powerful supercomputer</t>
+  </si>
+  <si>
+    <t>Fintech veteran Jitendra Gupta is ready for his new inning — now he is going after banks in India</t>
+  </si>
+  <si>
+    <t>Clubhouse is building a DM text chat feature</t>
+  </si>
+  <si>
+    <t>Mobile commerce startup Via rounds up $15 million in Series A funding</t>
+  </si>
+  <si>
+    <t>Facebook’s entry into VR advertising isn’t going too well</t>
+  </si>
+  <si>
+    <t>Daily Crunch: Facebook rolls out podcasts and Live Audio Rooms for US listeners</t>
+  </si>
+  <si>
+    <t>What does Red Hat’s sale to IBM tell us about Couchbase’s valuation?</t>
+  </si>
+  <si>
+    <t>Twitch suspends two popular female creators over sexy ASMR streams</t>
+  </si>
+  <si>
+    <t>Electric utility bike startup Ubco raises $10 million to fund its global expansion</t>
+  </si>
+  <si>
+    <t>Spielberg’s Amblin inks multiyear feature film deal with Netflix</t>
+  </si>
+  <si>
+    <t>Sneaker community startup SoleSavy raises $12.5 million Series A to build an end-to-end sneakersphere</t>
+  </si>
+  <si>
+    <t>How to land the top spot in Google search with featured snippets in 2021</t>
+  </si>
+  <si>
+    <t>TikTok launches Jump, a third-party integration tool</t>
+  </si>
+  <si>
+    <t>India proposes tougher e-commerce rules to address ‘widespread cheating’ complaints</t>
+  </si>
+  <si>
+    <t>Toyota Research Institute shows how its robotics work with difficult surfaces in the home</t>
+  </si>
+  <si>
+    <t>Uber to become the sole owner of grocery delivery startup Cornershop</t>
+  </si>
+  <si>
+    <t>Can the military academies compete with Stanford and Harvard in venture? Two veterans are raising $50M to find out</t>
+  </si>
+  <si>
+    <t>Maybe neobanks will break even after all</t>
+  </si>
+  <si>
+    <t>Porsche to make high-performance batteries in joint venture with Customcells</t>
+  </si>
+  <si>
+    <t>Biden’s executive order on cybersecurity should include behavior transparency</t>
+  </si>
+  <si>
+    <t>Tesla CEO Elon Musk has been teasing a neural network training computer called ‘Dojo’ since at least 2019. Musk says Dojo will be able to process vast amounts of video data to achieve visi</t>
+  </si>
+  <si>
+    <t>For most people in India, having to engage with banks doesn’t instill a sense of joy. Banks in the South Asian market are notorious for making unannounced spam calls to upsell customers loans an</t>
+  </si>
+  <si>
+    <t>Some Clubhouse users were treated to a surprise feature in their favorite app, but it wasn’t long for this world. A new UI element called “backchannel” popped up briefly before disap</t>
+  </si>
+  <si>
+    <t>Mobile commerce is where it’s at, and rising investment in so-called conversational commerce startups underscores the opportunity. Via, a two-year-old, Bay Area-based startup, is among those rid</t>
+  </si>
+  <si>
+    <t>Facebook’s efforts to bring advertising to the Oculus virtual reality platform it has spent billions of dollars building out doesn’t seem to be off to a great start. The company announced</t>
   </si>
   <si>
     <t>Hello friends and welcome to Daily Crunch, bringing you the most important startup, tech and venture capital news in a single package.</t>
   </si>
   <si>
-    <t>We're off today to celebrate the Juneteenth holiday in the United States. I hope you have a safe and relaxing weekend.</t>
-  </si>
-  <si>
-    <t>The need for markets-focused competition watchdogs and consumer-centric privacy regulators to think outside their respective ‘legal silos’ and find creative ways to work together to tackle</t>
-  </si>
-  <si>
-    <t>Meet Mediflash, a new French startup that wants to improve temp staffing in healthcare facilities, such as nursing homes, clinics and mental health facilities. The company positions itself as an alter</t>
-  </si>
-  <si>
-    <t>Hello and welcome back to Equity, TechCrunch’s venture capital-focused podcast, where we unpack the numbers behind the headlines. This week, Natasha and Danny, otherwise known as your two new favori</t>
-  </si>
-  <si>
-    <t>Indian fintech startup BharatPe is in advanced stages of talks to raise about $250 million in a new financing round led by Tiger Global, two sources familiar with the matter told TechCrunch. The new r</t>
-  </si>
-  <si>
-    <t>The UK’s chief data protection regulator has warned over reckless and inappropriate use of live facial recognition (LFR) in public places. Publishing an opinion today on the use of this biometri</t>
-  </si>
-  <si>
-    <t>Ford has two electric vehicles in the pipeline —  the E-Transit cargo van and F-150 Lighting Pro —aimed at commercial customers. Now, the automaker is rounding out its future EV commercial busine</t>
-  </si>
-  <si>
-    <t>On-demand goods, food and alcohol delivery service Gopuff has acquired fleet management platform rideOS for $115 million, sources familiar with the deal say. This acquisition comes just a few months a</t>
-  </si>
-  <si>
-    <t>Podcasts are all the rage, but podcast discovery is a challenge. Today, Spotify announced its acquisition of Podz, a startup that’s trying to solve the problem of podcast discovery. “At Sp</t>
-  </si>
-  <si>
-    <t>KeepTruckin, a hardware and software developer that helps trucking fleets manage vehicle, cargo and driver safety, has just raised $190 million in a Series E funding round, which puts the company&amp;#821</t>
-  </si>
-  <si>
-    <t>This past year, three sheep in Canada have been wearing their kidneys on their sleeves. Or more aptly, in jackets on their fluffy backs.  These three sheep are part of an ongoing animal study run by</t>
-  </si>
-  <si>
-    <t>CEO Shishir Mehrotra and Madrona partner S. Somasegar joined Extra Crunch Live to discuss Coda's pitch doc -- and give live feedback on pitches from the audience.</t>
-  </si>
-  <si>
-    <t>Igor Bonifacic Contributor Share on Twitter Igor Bonifacic is a contributing writer at Engadget. According to BuzzFeed News, Democratic Senator Ron Wyden and Representative Ted Lieu will introduce le</t>
-  </si>
-  <si>
-    <t>Lately, Snapchat’s 3D Cartoon lens has been all the buzz, making all of our friends look like Pixar characters. But since 2013, a staple filter on the ephemeral photo-sharing app has been the sp</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/19/dollars-deals-and-the-importance-of-nondilutive-capital/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/19/this-week-in-apps-spotify-debuts-a-clubhouse-rival-facebook-tests-audio-rooms-in-us-amazon-cuts-appstore-commissions/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/18/investors-say-eindhoven-poised-to-become-netherlands-no-2-tech-hub/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/18/daily-crunch-21/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/18/extra-crunch-roundup-influencer-marketing-101-spotting-future-unicorns-apple-airtags-teardown/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/18/perspectives-on-tackling-big-techs-market-power/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/18/mediflash-is-a-freelancer-marketplace-for-health-professionals/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/18/fintech-2021-paycheck/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/18/tiger-global-in-talks-to-back-bharatpe-at-2-5-billion-valuation/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/18/uks-ico-warns-over-big-data-surveillance-threat-of-live-facial-recognition-in-public/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/17/ford-acquires-electriphi-as-it-prepares-to-woo-ev-fleet-customers/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/17/delivery-service-gopuff-acquires-rideos-for-115-million-plus/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/17/spotify-acquires-podz-a-podcast-discovery-app/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/17/keeptruckin-raises-190-million-to-invest-in-ai-products-double-rd-team-to-700/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/17/daily-crunch-googles-first-retail-location-opened-today-in-nyc/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/17/canoo-wants-to-connect-owners-to-all-of-their-vehicles-not-just-canoos/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/17/mobile-dialysis-startup-eyes-human-trials-in-2022-following-encouraging-animal-study/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/17/ceo-shishir-mehrotra-and-investor-s-somasegar-reveal-what-sings-in-codas-pitch-doc/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/17/us-lawmakers-want-to-restrict-police-use-of-stingray-cell-tower-simulators/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/2021/06/17/following-lawsuits-snapchat-takes-down-controversial-speed-filter/</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/juneteenth_flag.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2020/10/this-week-in-apps-splash-2.png?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-995442942.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/All-New_Ford-E-Transit_09.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1318403307.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2019/10/GettyImages-1177739908.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Mediflash.jpeg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2020/07/equity-podcast-2019-phone.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-152382478.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2019/03/GettyImages-51478187.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Driver_partner_2_4x6_horizontal-2.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2019/08/spotify-app-icon-iphone.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/KT-1.png?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Branded-Merchandise-Basketballs.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/Screen-Shot-2021-06-17-at-2.34.10-PM.png?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1006988296.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/05/ECL-2021-june-02a-1.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2018/04/gettyimages-631552730.jpg?w=300&amp;h=160&amp;crop=1</t>
-  </si>
-  <si>
-    <t>https://techcrunch.com/wp-content/uploads/2021/06/snapchat-speed-blur.jpg?w=300&amp;h=160&amp;crop=1</t>
+    <t>Couchbase could double its valuation provided that investors are more interested in its faster-than-Red-Hat growth than they are worried about its history of cash consumption and growing net losses.</t>
+  </si>
+  <si>
+    <t>Popular Twitch streamers Amouranth and Indiefoxx are the two latest casualties of Twitch’s ongoing battle to enforce its own confusing rules around sexually suggestive content. Both creators wer</t>
+  </si>
+  <si>
+    <t>Ubco, the New Zealand-based electric utility bike startup, has raised $10 million to fund a global expansion focused on the U.S. market and scale up its commercial subscription service business.  Ubc</t>
+  </si>
+  <si>
+    <t>In something of an about-face, Amblin Partners, Steven Spielberg’s long-running film production company, will produce several films per year for Netflix. The deal reflects Netflix’s rising</t>
+  </si>
+  <si>
+    <t>Collectibles boomed during the pandemic and while NFT outfits like NBA Top Shot exploded as consumers flirted with newer efforts, the sneaker world grew even more mature with enthusiasts digging deepe</t>
+  </si>
+  <si>
+    <t>Google search is not what it used to be. We all want to be #1 on the search results page, but getting there isn’t enough. It might be worth it to instead go for the top featured snippet position.</t>
+  </si>
+  <si>
+    <t>TikTok announced today the launch of its Jump program, which expands the app’s potential for third-party integrations. TikTok began beta-testing this feature in February with Whisk, a recipe-sha</t>
+  </si>
+  <si>
+    <t>India proposed on Monday banning flash sales on e-commerce platforms and preventing their affiliate entities from being listed as sellers as the South Asian market looks to further tighten rules that</t>
+  </si>
+  <si>
+    <t>Following this morning’s announcement that Hyundai has closed its acquisition of Boston Dynamics, another automotive company has posted some robotics news. The Toyota Research Institute announcement</t>
+  </si>
+  <si>
+    <t>Uber has reached a deal to become the sole owner of Latin American delivery startup Cornershop, just one year after acquiring a majority stake in the company. The ride-hailing giant said in a regulato</t>
+  </si>
+  <si>
+    <t>Soldier-entrepreneurs are unfortunately still a rare breed in Silicon Valley, despite the region’s origins in Cold War defense spending. While the courage and perseverance required to fight in an ov</t>
+  </si>
+  <si>
+    <t>Neobanking has yet to show that it can generate positive, growing free cash flows over a multiyear period. But their results at least indicate that such incomes could occur in time.</t>
+  </si>
+  <si>
+    <t>Luxury sports car manufacturer Porsche AG is going into the battery business. The automaker said Monday it plans to open a new factory that will produce high-performance cells through a joint venture</t>
+  </si>
+  <si>
+    <t>The cyber executive order, alongside sanctions on Russia, are strong indications the Biden administration intends to take a far more proactive approach to cybersecurity. But it's not quite enough.</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/tesla-backs-vision-only-approach-to-autonomy-using-powerful-supercomputer/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/jiten-gupta-jupiter-launch/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/clubhouse-dms-text-chat/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/via-a-mobile-commerce-startup-that-claims-51-million-in-sales-in-its-first-six-months-just-closed-its-a-round/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/facebooks-entry-into-vr-advertising-isnt-going-too-well/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/daily-crunch-22/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/what-does-red-hats-sale-to-ibm-tell-us-about-couchbases-valuation/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/twitch-asmr-meta-amouranth-indiefoxx/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/electric-utility-bike-startup-ubco-raises-10-million-to-fund-its-global-expansion/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/spielbergs-amblin-inks-multi-year-feature-film-deal-with-netflix/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/sneaker-community-startup-solesavy-raises-12-5-million-series-a-to-build-an-end-to-end-sneakersphere/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/how-to-land-the-top-spot-in-google-search-with-featured-snippets-in-2021/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/tiktok-launches-jump-a-third-party-integration-tool/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/india-proposes-tougher-e-commerce-rules-following-widespread-cheating-and-unfair-trade-by-amazon-and-flipkart/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/toyota-research-institute-shows-how-its-robotics-work-with-difficult-surfaces-in-the-home/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/uber-to-become-the-sole-owner-of-grocery-delivery-startup-cornershop/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/academy-investor-network-usaa/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/maybe-neobanks-will-break-even-after-all/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/porsche-to-make-high-performance-batteries-in-joint-venture-with-customcells/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/2021/06/21/bidens-executive-order-on-cybersecurity-should-include-behavior-transparency/</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Screen-Shot-2021-06-22-at-12.57.01-pm.png?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1094011598.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/04/GettyImages-1231467577.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2020/07/GettyImages-1158779061.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/186861510_582240592738474_1977412821331251523_n.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/podcastgroup.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2020/05/GettyImages-510854969.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1228979901.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/UBCO_2018_2x2_Female_Rider.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2019/10/GettyImages-1163035564.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/01/GettyImages-835136660.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-463772613-1-1.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/tiktokjump1.jpeg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2019/06/GettyImages-843734818.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Screen-Shot-2021-06-21-at-11.50.07-AM.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2018/09/cornershop.png?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/Sherman-and-Emily.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2020/05/NSussman_Techcrunch_Exchange_v3-GRN.jpg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/porsche.jpeg?w=300&amp;h=160&amp;crop=1</t>
+  </si>
+  <si>
+    <t>https://techcrunch.com/wp-content/uploads/2021/06/GettyImages-1307110361.jpg?w=300&amp;h=160&amp;crop=1</t>
   </si>
 </sst>
 </file>
@@ -633,10 +642,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="120.7109375" customWidth="1"/>
+    <col min="1" max="1" width="115.7109375" customWidth="1"/>
     <col min="2" max="2" width="201.7109375" customWidth="1"/>
-    <col min="3" max="3" width="152.7109375" customWidth="1"/>
-    <col min="4" max="4" width="110.7109375" customWidth="1"/>
+    <col min="3" max="3" width="145.7109375" customWidth="1"/>
+    <col min="4" max="4" width="121.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -661,10 +670,10 @@
         <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -675,10 +684,10 @@
         <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -689,10 +698,10 @@
         <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -703,10 +712,10 @@
         <v>27</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -717,10 +726,10 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -731,10 +740,10 @@
         <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -745,10 +754,10 @@
         <v>30</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -759,10 +768,10 @@
         <v>31</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -773,10 +782,10 @@
         <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -787,10 +796,10 @@
         <v>33</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -801,10 +810,10 @@
         <v>34</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -815,10 +824,10 @@
         <v>35</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -829,10 +838,10 @@
         <v>36</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -843,10 +852,10 @@
         <v>37</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -854,24 +863,27 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>19</v>
       </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -879,13 +891,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -893,13 +905,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -907,13 +919,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -921,13 +933,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
